--- a/deckfight2.xlsx
+++ b/deckfight2.xlsx
@@ -21829,7 +21829,7 @@
         <v>151</v>
       </c>
       <c r="C2" s="49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" s="50" t="s">
         <v>152</v>
@@ -21885,7 +21885,7 @@
         <v>156</v>
       </c>
       <c r="C3" s="49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" s="50" t="s">
         <v>152</v>
@@ -21941,7 +21941,7 @@
         <v>158</v>
       </c>
       <c r="C4" s="49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" s="50" t="s">
         <v>152</v>
@@ -21997,7 +21997,7 @@
         <v>160</v>
       </c>
       <c r="C5" s="49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" s="50" t="s">
         <v>152</v>
@@ -22053,7 +22053,7 @@
         <v>162</v>
       </c>
       <c r="C6" s="49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" s="50" t="s">
         <v>152</v>
@@ -22109,7 +22109,7 @@
         <v>164</v>
       </c>
       <c r="C7" s="49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" s="50" t="s">
         <v>152</v>
@@ -22165,7 +22165,7 @@
         <v>166</v>
       </c>
       <c r="C8" s="49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="66" t="s">
         <v>167</v>
@@ -22221,7 +22221,7 @@
         <v>171</v>
       </c>
       <c r="C9" s="49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>167</v>
@@ -22277,7 +22277,7 @@
         <v>173</v>
       </c>
       <c r="C10" s="49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>167</v>
@@ -22331,7 +22331,7 @@
         <v>174</v>
       </c>
       <c r="C11" s="49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" s="66" t="s">
         <v>167</v>
@@ -22387,7 +22387,7 @@
         <v>177</v>
       </c>
       <c r="C12" s="49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D12" s="66" t="s">
         <v>167</v>
@@ -22444,7 +22444,7 @@
         <v>179</v>
       </c>
       <c r="C13" s="49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>167</v>
@@ -22510,7 +22510,7 @@
         <v>182</v>
       </c>
       <c r="C14" s="49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D14" s="75" t="s">
         <v>183</v>
@@ -22575,7 +22575,7 @@
         <v>186</v>
       </c>
       <c r="C15" s="49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D15" s="75" t="s">
         <v>183</v>
@@ -22638,7 +22638,7 @@
         <v>188</v>
       </c>
       <c r="C16" s="49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D16" s="75" t="s">
         <v>183</v>
@@ -22699,7 +22699,7 @@
         <v>192</v>
       </c>
       <c r="C17" s="49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D17" s="75" t="s">
         <v>183</v>
@@ -22756,7 +22756,7 @@
         <v>194</v>
       </c>
       <c r="C18" s="49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>195</v>
@@ -22831,7 +22831,7 @@
         <v>199</v>
       </c>
       <c r="C19" s="49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>195</v>
@@ -22891,7 +22891,7 @@
         <v>202</v>
       </c>
       <c r="C20" s="49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>195</v>
@@ -22965,7 +22965,7 @@
         <v>205</v>
       </c>
       <c r="C21" s="49">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>195</v>
@@ -23019,7 +23019,7 @@
         <v>209</v>
       </c>
       <c r="C22" s="49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D22" s="50" t="s">
         <v>152</v>
@@ -23075,7 +23075,7 @@
         <v>211</v>
       </c>
       <c r="C23" s="49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D23" s="50" t="s">
         <v>152</v>
@@ -23129,7 +23129,7 @@
         <v>212</v>
       </c>
       <c r="C24" s="49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D24" s="50" t="s">
         <v>152</v>
@@ -23183,7 +23183,7 @@
         <v>213</v>
       </c>
       <c r="C25" s="49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D25" s="50" t="s">
         <v>152</v>
@@ -23236,7 +23236,7 @@
         <v>214</v>
       </c>
       <c r="C26" s="49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D26" s="50" t="s">
         <v>152</v>
@@ -23289,7 +23289,7 @@
         <v>215</v>
       </c>
       <c r="C27" s="49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D27" s="50" t="s">
         <v>152</v>
@@ -23342,7 +23342,7 @@
         <v>216</v>
       </c>
       <c r="C28" s="49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D28" s="66" t="s">
         <v>167</v>
@@ -23395,7 +23395,7 @@
         <v>217</v>
       </c>
       <c r="C29" s="49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D29" s="66" t="s">
         <v>167</v>
@@ -23448,7 +23448,7 @@
         <v>218</v>
       </c>
       <c r="C30" s="49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D30" s="66" t="s">
         <v>167</v>
@@ -23501,7 +23501,7 @@
         <v>219</v>
       </c>
       <c r="C31" s="49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D31" s="66" t="s">
         <v>167</v>
@@ -23554,7 +23554,7 @@
         <v>220</v>
       </c>
       <c r="C32" s="49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D32" s="66" t="s">
         <v>167</v>
@@ -23607,7 +23607,7 @@
         <v>221</v>
       </c>
       <c r="C33" s="49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D33" s="66" t="s">
         <v>167</v>
@@ -23660,7 +23660,7 @@
         <v>222</v>
       </c>
       <c r="C34" s="49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D34" s="75" t="s">
         <v>183</v>
@@ -23719,7 +23719,7 @@
         <v>223</v>
       </c>
       <c r="C35" s="49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D35" s="75" t="s">
         <v>183</v>
@@ -23787,7 +23787,7 @@
         <v>224</v>
       </c>
       <c r="C36" s="49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D36" s="75" t="s">
         <v>183</v>
@@ -23847,7 +23847,7 @@
         <v>225</v>
       </c>
       <c r="C37" s="49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D37" s="75" t="s">
         <v>183</v>
@@ -23901,7 +23901,7 @@
         <v>226</v>
       </c>
       <c r="C38" s="49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>195</v>
@@ -23959,7 +23959,7 @@
         <v>227</v>
       </c>
       <c r="C39" s="49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>195</v>
@@ -24031,7 +24031,7 @@
         <v>228</v>
       </c>
       <c r="C40" s="49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>195</v>
@@ -24083,7 +24083,7 @@
         <v>230</v>
       </c>
       <c r="C41" s="49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>195</v>
@@ -24135,7 +24135,7 @@
         <v>231</v>
       </c>
       <c r="C42" s="82">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D42" s="50" t="s">
         <v>152</v>
@@ -24189,7 +24189,7 @@
         <v>232</v>
       </c>
       <c r="C43" s="82">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D43" s="50" t="s">
         <v>152</v>
@@ -24243,7 +24243,7 @@
         <v>233</v>
       </c>
       <c r="C44" s="82">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D44" s="50" t="s">
         <v>152</v>
@@ -24296,7 +24296,7 @@
         <v>234</v>
       </c>
       <c r="C45" s="82">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D45" s="50" t="s">
         <v>152</v>
@@ -24349,7 +24349,7 @@
         <v>235</v>
       </c>
       <c r="C46" s="82">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D46" s="50" t="s">
         <v>152</v>
@@ -24402,7 +24402,7 @@
         <v>236</v>
       </c>
       <c r="C47" s="82">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D47" s="50" t="s">
         <v>152</v>
@@ -24455,7 +24455,7 @@
         <v>237</v>
       </c>
       <c r="C48" s="82">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D48" s="83" t="s">
         <v>238</v>
@@ -24508,7 +24508,7 @@
         <v>239</v>
       </c>
       <c r="C49" s="82">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D49" s="83" t="s">
         <v>238</v>
@@ -24561,7 +24561,7 @@
         <v>240</v>
       </c>
       <c r="C50" s="82">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D50" s="83" t="s">
         <v>238</v>
@@ -24614,7 +24614,7 @@
         <v>241</v>
       </c>
       <c r="C51" s="82">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D51" s="83" t="s">
         <v>238</v>
@@ -24667,7 +24667,7 @@
         <v>242</v>
       </c>
       <c r="C52" s="82">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D52" s="83" t="s">
         <v>238</v>
@@ -24720,7 +24720,7 @@
         <v>243</v>
       </c>
       <c r="C53" s="82">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D53" s="83" t="s">
         <v>238</v>
@@ -24774,7 +24774,7 @@
         <v>244</v>
       </c>
       <c r="C54" s="82">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D54" s="75" t="s">
         <v>183</v>
@@ -24838,7 +24838,7 @@
         <v>245</v>
       </c>
       <c r="C55" s="82">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D55" s="75" t="s">
         <v>183</v>
@@ -24899,7 +24899,7 @@
         <v>246</v>
       </c>
       <c r="C56" s="82">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D56" s="75" t="s">
         <v>183</v>
@@ -24956,7 +24956,7 @@
         <v>247</v>
       </c>
       <c r="C57" s="82">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D57" s="75" t="s">
         <v>183</v>
@@ -25010,7 +25010,7 @@
         <v>248</v>
       </c>
       <c r="C58" s="82">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>195</v>
@@ -25082,7 +25082,7 @@
         <v>249</v>
       </c>
       <c r="C59" s="82">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>195</v>
@@ -25154,7 +25154,7 @@
         <v>250</v>
       </c>
       <c r="C60" s="82">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>195</v>
@@ -25205,7 +25205,7 @@
         <v>251</v>
       </c>
       <c r="C61" s="82">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>195</v>
@@ -25258,7 +25258,7 @@
         <v>252</v>
       </c>
       <c r="C62" s="82">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D62" s="50" t="s">
         <v>152</v>
@@ -25313,7 +25313,7 @@
         <v>253</v>
       </c>
       <c r="C63" s="82">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D63" s="50" t="s">
         <v>152</v>
@@ -25368,7 +25368,7 @@
         <v>254</v>
       </c>
       <c r="C64" s="82">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D64" s="50" t="s">
         <v>152</v>
@@ -25427,7 +25427,7 @@
         <v>255</v>
       </c>
       <c r="C65" s="82">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D65" s="50" t="s">
         <v>152</v>
@@ -25486,7 +25486,7 @@
         <v>256</v>
       </c>
       <c r="C66" s="82">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D66" s="50" t="s">
         <v>152</v>
@@ -25545,7 +25545,7 @@
         <v>257</v>
       </c>
       <c r="C67" s="82">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D67" s="50" t="s">
         <v>152</v>
@@ -25604,7 +25604,7 @@
         <v>258</v>
       </c>
       <c r="C68" s="82">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D68" s="83" t="s">
         <v>238</v>
@@ -25663,7 +25663,7 @@
         <v>259</v>
       </c>
       <c r="C69" s="82">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D69" s="83" t="s">
         <v>238</v>
@@ -25722,7 +25722,7 @@
         <v>260</v>
       </c>
       <c r="C70" s="82">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D70" s="83" t="s">
         <v>238</v>
@@ -25777,7 +25777,7 @@
         <v>261</v>
       </c>
       <c r="C71" s="82">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D71" s="83" t="s">
         <v>238</v>
@@ -25832,7 +25832,7 @@
         <v>262</v>
       </c>
       <c r="C72" s="82">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D72" s="83" t="s">
         <v>238</v>
@@ -25887,7 +25887,7 @@
         <v>263</v>
       </c>
       <c r="C73" s="82">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D73" s="83" t="s">
         <v>238</v>
@@ -25942,7 +25942,7 @@
         <v>264</v>
       </c>
       <c r="C74" s="82">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D74" s="75" t="s">
         <v>183</v>
@@ -25999,7 +25999,7 @@
         <v>265</v>
       </c>
       <c r="C75" s="82">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D75" s="75" t="s">
         <v>183</v>
@@ -26072,7 +26072,7 @@
         <v>266</v>
       </c>
       <c r="C76" s="82">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D76" s="75" t="s">
         <v>183</v>
@@ -26133,7 +26133,7 @@
         <v>267</v>
       </c>
       <c r="C77" s="82">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D77" s="75" t="s">
         <v>183</v>
@@ -26188,7 +26188,7 @@
         <v>268</v>
       </c>
       <c r="C78" s="82">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>195</v>
@@ -26261,7 +26261,7 @@
         <v>269</v>
       </c>
       <c r="C79" s="82">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>195</v>
@@ -26334,7 +26334,7 @@
         <v>270</v>
       </c>
       <c r="C80" s="82">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>195</v>
@@ -26409,7 +26409,7 @@
         <v>271</v>
       </c>
       <c r="C81" s="82">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>195</v>
@@ -26462,7 +26462,7 @@
         <v>272</v>
       </c>
       <c r="C82" s="82">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D82" s="50" t="s">
         <v>152</v>
@@ -26517,7 +26517,7 @@
         <v>273</v>
       </c>
       <c r="C83" s="82">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D83" s="50" t="s">
         <v>152</v>
@@ -26572,7 +26572,7 @@
         <v>274</v>
       </c>
       <c r="C84" s="82">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D84" s="50" t="s">
         <v>152</v>
@@ -26627,7 +26627,7 @@
         <v>275</v>
       </c>
       <c r="C85" s="82">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D85" s="50" t="s">
         <v>152</v>
@@ -26682,7 +26682,7 @@
         <v>276</v>
       </c>
       <c r="C86" s="82">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D86" s="50" t="s">
         <v>152</v>
@@ -26737,7 +26737,7 @@
         <v>277</v>
       </c>
       <c r="C87" s="82">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D87" s="50" t="s">
         <v>152</v>
@@ -26792,7 +26792,7 @@
         <v>278</v>
       </c>
       <c r="C88" s="82">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>238</v>
@@ -26847,7 +26847,7 @@
         <v>279</v>
       </c>
       <c r="C89" s="82">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>238</v>
@@ -26902,7 +26902,7 @@
         <v>280</v>
       </c>
       <c r="C90" s="82">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>238</v>
@@ -26957,7 +26957,7 @@
         <v>281</v>
       </c>
       <c r="C91" s="82">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>238</v>
@@ -27012,7 +27012,7 @@
         <v>282</v>
       </c>
       <c r="C92" s="82">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>238</v>
@@ -27067,7 +27067,7 @@
         <v>283</v>
       </c>
       <c r="C93" s="82">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>238</v>
@@ -27122,7 +27122,7 @@
         <v>284</v>
       </c>
       <c r="C94" s="82">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>183</v>
@@ -27181,7 +27181,7 @@
         <v>285</v>
       </c>
       <c r="C95" s="82">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>183</v>
@@ -27252,7 +27252,7 @@
         <v>286</v>
       </c>
       <c r="C96" s="82">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>183</v>
@@ -27309,7 +27309,7 @@
         <v>287</v>
       </c>
       <c r="C97" s="82">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>183</v>
@@ -27362,7 +27362,7 @@
         <v>288</v>
       </c>
       <c r="C98" s="82">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>195</v>
@@ -27417,7 +27417,7 @@
         <v>289</v>
       </c>
       <c r="C99" s="82">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>195</v>
@@ -27472,7 +27472,7 @@
         <v>290</v>
       </c>
       <c r="C100" s="82">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>195</v>
@@ -27529,7 +27529,7 @@
         <v>291</v>
       </c>
       <c r="C101" s="82">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>195</v>
